--- a/de.dlr.sc.virsat.model.extension.funcelectrical/resources/ExcelExportTemplate.xlsx
+++ b/de.dlr.sc.virsat.model.extension.funcelectrical/resources/ExcelExportTemplate.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muel_s8\git\VirtualSatellite4-Core\de.dlr.sc.virsat.model.extension.funcelectrical\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283AD928-7F0B-41DE-B1E9-29D2002541C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="20115" windowHeight="9525" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="20115" windowHeight="9525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t xml:space="preserve"> Structural Element UUID</t>
   </si>
@@ -98,12 +104,15 @@
   </si>
   <si>
     <t>This is an auto generated ICD Document of Virtual Satellite</t>
+  </si>
+  <si>
+    <t>InterfaceEnd FullQualifiedName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -393,6 +402,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -427,14 +439,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -472,9 +487,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,9 +522,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,9 +574,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -717,7 +766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -732,29 +781,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" ht="128.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -837,11 +886,11 @@
       <c r="C15" s="6"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -856,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -871,29 +920,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="128.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -1163,9 +1212,9 @@
       <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -1183,11 +1232,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,38 +1244,42 @@
     <col min="1" max="1" width="26.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="34"/>
-    </row>
-    <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:6" ht="128.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" ht="128.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
@@ -1236,281 +1289,317 @@
       <c r="C4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="22"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="22"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="22"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="22"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="22"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="22"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="22"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="22"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="22"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="22"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="22"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="22"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="22"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="22"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="22"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="22"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="22"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="22"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="22"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="22"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="22"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="22"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1518,7 +1607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1535,35 +1624,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:7" ht="128.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -1871,9 +1960,9 @@
       <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="26"/>
       <c r="E37" s="25"/>
       <c r="F37" s="22"/>
